--- a/Domains/ex02_serv_dict.xlsx
+++ b/Domains/ex02_serv_dict.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="140">
   <si>
     <t xml:space="preserve">BSA04_Domains</t>
   </si>
@@ -82,6 +82,9 @@
     <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
+    <t xml:space="preserve">длина не менее 2х символов</t>
+  </si>
+  <si>
     <t xml:space="preserve">middle_name</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t xml:space="preserve">уникальный (unique)</t>
   </si>
   <si>
+    <t xml:space="preserve">проверка на формат начало с +7 или 8, длина 10 цифр; автоматическая замена 8 на +7, удаление пробелов и “-”</t>
+  </si>
+  <si>
     <t xml:space="preserve">email</t>
   </si>
   <si>
@@ -161,6 +167,9 @@
   </si>
   <si>
     <t xml:space="preserve">по умолчанию активен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">возможно использование ENUM</t>
   </si>
   <si>
     <r>
@@ -417,6 +426,9 @@
     <t xml:space="preserve">JSON</t>
   </si>
   <si>
+    <t xml:space="preserve">разбитие на необходимое количество полей необходимые для авторизации по API</t>
+  </si>
+  <si>
     <t xml:space="preserve">активный / не используется (в архиве)</t>
   </si>
   <si>
@@ -490,6 +502,9 @@
   </si>
   <si>
     <t xml:space="preserve">оценка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">значение от 1 до 5</t>
   </si>
   <si>
     <t xml:space="preserve">review</t>
@@ -803,8 +818,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A119" activeCellId="0" sqref="A119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -937,43 +952,52 @@
       <c r="E9" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>22</v>
       </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>22</v>
+      <c r="G11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>19</v>
@@ -982,52 +1006,55 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>14</v>
@@ -1036,16 +1063,16 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>19</v>
@@ -1054,18 +1081,18 @@
         <v>15</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>19</v>
@@ -1074,27 +1101,30 @@
         <v>15</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1104,10 +1134,10 @@
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>13</v>
@@ -1135,41 +1165,50 @@
       <c r="E21" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>19</v>
@@ -1178,32 +1217,35 @@
         <v>15</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>14</v>
@@ -1212,15 +1254,15 @@
         <v>15</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>19</v>
@@ -1229,15 +1271,15 @@
         <v>15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>19</v>
@@ -1246,27 +1288,30 @@
         <v>15</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1276,10 +1321,10 @@
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
@@ -1307,41 +1352,50 @@
       <c r="E32" s="14" t="s">
         <v>15</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>19</v>
@@ -1350,32 +1404,35 @@
         <v>15</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>14</v>
@@ -1384,15 +1441,15 @@
         <v>15</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>19</v>
@@ -1401,15 +1458,15 @@
         <v>15</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>19</v>
@@ -1418,41 +1475,44 @@
         <v>15</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,10 +1521,10 @@
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>13</v>
@@ -1492,41 +1552,50 @@
       <c r="E44" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G44" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G45" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>19</v>
@@ -1535,32 +1604,35 @@
         <v>15</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>14</v>
@@ -1569,15 +1641,15 @@
         <v>15</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>19</v>
@@ -1586,15 +1658,15 @@
         <v>15</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>19</v>
@@ -1603,35 +1675,38 @@
         <v>15</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
@@ -1659,41 +1734,50 @@
       <c r="E55" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="G55" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="14" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>19</v>
@@ -1702,32 +1786,35 @@
         <v>15</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>14</v>
@@ -1738,10 +1825,10 @@
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>19</v>
@@ -1750,15 +1837,15 @@
         <v>15</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>19</v>
@@ -1767,35 +1854,38 @@
         <v>15</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>13</v>
@@ -1812,10 +1902,10 @@
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>14</v>
@@ -1824,7 +1914,7 @@
         <v>15</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1832,7 +1922,7 @@
         <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>14</v>
@@ -1841,15 +1931,15 @@
         <v>15</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>14</v>
@@ -1858,18 +1948,18 @@
         <v>15</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>15</v>
@@ -1877,13 +1967,13 @@
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>15</v>
@@ -1891,13 +1981,13 @@
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>15</v>
@@ -1905,13 +1995,13 @@
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E72" s="14" t="s">
         <v>15</v>
@@ -1919,10 +2009,10 @@
     </row>
     <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>14</v>
@@ -1931,18 +2021,18 @@
         <v>15</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>15</v>
@@ -1950,10 +2040,10 @@
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
@@ -1970,13 +2060,13 @@
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>15</v>
@@ -1984,13 +2074,13 @@
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>15</v>
@@ -1998,10 +2088,10 @@
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>14</v>
@@ -2010,18 +2100,18 @@
         <v>15</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>15</v>
@@ -2029,13 +2119,13 @@
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>15</v>
@@ -2046,10 +2136,10 @@
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>13</v>
@@ -2066,10 +2156,10 @@
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>19</v>
@@ -2078,32 +2168,32 @@
         <v>15</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
@@ -2120,10 +2210,10 @@
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>19</v>
@@ -2134,13 +2224,13 @@
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>15</v>
@@ -2148,13 +2238,13 @@
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E90" s="3" t="s">
         <v>15</v>
@@ -2162,13 +2252,13 @@
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>15</v>
@@ -2176,19 +2266,22 @@
     </row>
     <row r="92" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2198,10 +2291,10 @@
     </row>
     <row r="94" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>13</v>
@@ -2218,10 +2311,10 @@
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>19</v>
@@ -2232,41 +2325,47 @@
     </row>
     <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
@@ -2283,10 +2382,10 @@
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>19</v>
@@ -2297,10 +2396,10 @@
     </row>
     <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>14</v>
@@ -2309,7 +2408,7 @@
         <v>15</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2317,10 +2416,10 @@
         <v>12</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>15</v>
@@ -2328,19 +2427,22 @@
     </row>
     <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2348,10 +2450,10 @@
     </row>
     <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
@@ -2368,10 +2470,10 @@
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>14</v>
@@ -2380,18 +2482,18 @@
         <v>15</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>15</v>
@@ -2399,13 +2501,13 @@
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>15</v>
@@ -2413,13 +2515,13 @@
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>15</v>
@@ -2427,44 +2529,47 @@
     </row>
     <row r="110" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
@@ -2484,7 +2589,7 @@
         <v>12</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>14</v>
@@ -2493,15 +2598,15 @@
         <v>15</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>14</v>
@@ -2510,32 +2615,35 @@
         <v>15</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>15</v>
@@ -2543,13 +2651,13 @@
     </row>
     <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>15</v>
@@ -2557,19 +2665,22 @@
     </row>
     <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
